--- a/src/test/resources/visitor_names.xlsx
+++ b/src/test/resources/visitor_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIENTGEEKS\eclipse-workspace\Convexvzit\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIENTGEEKS\IdeaProjects\Convexvzit\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83038F0D-8DFD-4B1A-B255-06A14AA73E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFE3157-51F6-4D98-8169-8F4DE8B35D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitors" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Aarav Sharma</t>
   </si>
@@ -57,6 +57,33 @@
   </si>
   <si>
     <t>Pooja Nair</t>
+  </si>
+  <si>
+    <t>Diya Mehta</t>
+  </si>
+  <si>
+    <t>Ishaan Verma</t>
+  </si>
+  <si>
+    <t>Meera Iyer</t>
+  </si>
+  <si>
+    <t>Ritika Singh</t>
+  </si>
+  <si>
+    <t>Vivaan Reddy</t>
+  </si>
+  <si>
+    <t>Anaya Kapoor</t>
+  </si>
+  <si>
+    <t>Rohan Nair</t>
+  </si>
+  <si>
+    <t>Sanya Joshi</t>
+  </si>
+  <si>
+    <t>Kunal Deshmukh</t>
   </si>
 </sst>
 </file>
@@ -405,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -456,6 +483,56 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
